--- a/Un-Normalized table.xlsx
+++ b/Un-Normalized table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexp\repos\database-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880021E1-6059-4840-9A87-8DE0935C0BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E77E524-276F-4A17-8FC1-4A275D1BECC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">customer-lname </t>
   </si>
@@ -73,6 +73,12 @@
   </si>
   <si>
     <t>total-cost</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>time</t>
   </si>
 </sst>
 </file>
@@ -390,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:R1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -413,7 +419,7 @@
     <col min="15" max="15" width="13.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -461,6 +467,12 @@
       </c>
       <c r="P1" t="s">
         <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
